--- a/scrape_output3.xlsx
+++ b/scrape_output3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,18 +513,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Brian Pickard</t>
+          <t>Kyle Corcoran</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Director, Ecommerce Operations</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>VP Omnichannel &amp; Ecommerce</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A logical and analytical merchandising executive with extensive and diversified experience in retail acquired through interface with senior executives across multiple functions and divisions within leading retail organizations. Brings extensive project management experience and outstanding leadership qualities to drive complex strategic initiatives and organizational objectives.
+</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/brian-pickard-5b313323</t>
+          <t>https://www.linkedin.com/in/kyle-corcoran-1a094b4a</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -534,7 +539,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Lunenburg, Massachusetts, United States</t>
+          <t>Frisco, Texas, United States</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -544,41 +549,55 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1A Auto</t>
+          <t>BIOWORLD MERCHANDISING</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t xml:space="preserve">        1A Auto is a high growth forward-looking online retailer headquartered northwest of Boston.  We are a leader in our market, a leader in technology, and are positioned for further growth.  We employ an enthusiastic team of innovators and pride ourselves on employing the best talent in the marketplace. Each team member brings a unique skill set to the table and collectively have a track record of accomplishing the most challenging of goals. We offer a collaborative culture and casual work environment.  You will have the opportunity to contribute your skills and new ideas for a quickly growing and constantly improving company.
+          <t xml:space="preserve">        Bioworld is the leading global manufacturer of licensed apparel, accessories, and home goods. Bioworld
+partners with the world’s most iconic creators and brands to bring pop culture to life, all to create deeper
+connections between fans and the things they love. Bioworld is about more than just a branded t-shirt —
+it’s a full-on experience, one that reaches fans from head-to-toe and from closet-to-kitchen.
+Founded in 1999 as a headwear company, Bioworld currently designs into 20 product categories and
+partners with retailers at all levels of distribution. From mass to specialty, from boutique to online, Bioworld
+helps fans connect at every price point, style, and trend. And with ten offices worldwide and a world-class
+supply chain, Bioworld’s partners know that when it comes to reaching a broad and diverse customer
+base — Bioworld isn’t just one solution. Bioworld is THE solution.
       </t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>200 Innovative Way, 1350, Nashua, New Hampshire 03062, United States</t>
+          <t>1159 Cottonwood Ln, Irving, Texas 75038, United States</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>http://www.1aauto.com/</t>
+          <t>http://www.bioworldmerch.com/</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bailey Barben Temen</t>
+          <t>Salina Fotiathis</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Director, Ecommerce</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>Vice President of Ecommerce</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">With over six years of experience in the furniture industry, I am a passionate and driven leader in ecommerce, marketing, and advertising. I have a strong vision and mission to deliver exceptional customer experiences, innovative solutions, and profitable growth for Ashley Furniture, the largest furniture manufacturer and retailer in the world. I bring diverse perspectives and experiences to the team, as I speak multiple languages and have a deep understanding of different cultures and markets.
+As the Vice President of Ecommerce, I oversee the strategic direction and execution of all online channels, including the marketplace &amp; pureplay accounts. I manage a talented team of professionals who are responsible for merchandising, advertising, promotions, and product launches across all national accounts. I also work closely with the media agency to ensure alignment and optimization of search and display campaigns. I leverage my skills in digital marketing, advertising, and analytics to drive traffic, conversion, retention, and loyalty for Ashley Furniture.
+</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/bailey-barben</t>
+          <t>https://www.linkedin.com/in/salinaabid</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -588,7 +607,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Tampa, Florida, United States</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -598,46 +617,55 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Bottega Veneta</t>
+          <t>Ashley Furniture Industries</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Established in Vicenza, Italy, in 1966, Bottega Veneta preserves an authentic connection to its founding principles of Labor et Ingenium, expressing craft and creativity.
+          <t xml:space="preserve">        Ashley Furniture Industries, LLC. (Ashley) is the largest furniture manufacturer in the United States and one of the largest in the world. Established in 1945, Ashley offers one of the industry’s broadest product assortments to retail partners in 155 countries. From design through fulfillment, Ashley continuously strives to provide our customer with the best values, selection and service in the furniture industry.
+We are passionate about every piece of furniture we build, from the finest detail to the largest idea. From the moment we conceive a design, to the point that our furniture is produced in our world-class advanced manufacturing operations, and ultimately packaged, delivered and accepted into the home -– we aim for complete satisfaction.
+Our Vision and Mission:
+We want to be the Best Home Furnishings Company
+Improve Quality
+Reduce Cost
+Do More Business 
+Be Profitable
+Stay in Business
       </t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Via Ercole Marelli, 6, Milan, MI 20139, Italy</t>
+          <t>One Ashley Way, Arcadia, WI 54612, United States</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/company/www.bottegaveneta.com</t>
+          <t>http://www.ashleyfurnitureindustriesllc.com/</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sheena McKay</t>
+          <t>Grant Morrow</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Senior Director of Ecommerce</t>
+          <t>Director Of Ecommerce</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Accomplished Global Sales Leader with extensive experience in leadership skills to coach, manage and motivate diverse professionals in challenging environments. Strong background in North America and European markets, strategic sales planning, eCommerce, digital marketing, category management and product innovation. Significant knowledge in general management, finance, supply chain and restructuring for change.
+          <t xml:space="preserve">I strive to develop solutions for business processes and problems through technology, while keeping an eye to market trends and major business goals and opportunities. My experience comes from a background of web development, project management, eCommerce, and video production. These skills have allowed me to gain a unique understanding of business, media and markets and those trends that influence what areas the most.
+Specialties: eCommerce deployment, Process reorientation, business systems redesign, business systems and eCommerce integration, logistics processes, project management, business process design
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/sheena-mckay</t>
+          <t>https://www.linkedin.com/in/grant-morrow-89ba6515</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -647,7 +675,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Naples, Florida, United States</t>
+          <t>Memphis Metropolitan Area</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -657,55 +685,46 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Newell Brands</t>
+          <t>Orgill</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Newell Brands (NASDAQ: NWL) is a leading global consumer goods company with a strong portfolio of well-known brands, including Rubbermaid, Sharpie, Graco, Coleman, Rubbermaid Commercial Products, Yankee Candle, Paper Mate, FoodSaver, Dymo, EXPO, Elmer’s, Oster, NUK, Spontex and Campingaz. 
-We are focused on delighting consumers by lighting up everyday moments.
+          <t xml:space="preserve">        Orgill, Inc. is the world's largest independent hardlines distributor with annual sales of $3.5 billion. The privately owned company was founded in 1847 and is headquartered in Collierville, TN. Orgill serves more than 11,000 retail hardware stores, home centers, pro lumber dealers, and farm stores throughout the United States and Canada, and over 50 countries around the world.
+Orgill retailers have immediate access to more than 75,000 SKUs in each of its eight distribution centers. Drop Ship programs are available from the industry's leading manufacturers. Orgill's distribution facilities are among the newest and most efficient in the industry, with order accuracy rates of 99.6% and industry leading fill rates. Orgill operates one of the industry's largest truck fleets. 98% of Orgill customers receive their shipment on a scheduled Orgill truck with an Orgill driver within 48 hours of placing their order.
+More than 350 Orgill field representatives are strategically located throughout North America. These highly trained men and women work side by side with customers to help identify and address opportunities in the dealer's local market.
+Our field staff is supported by a highly skilled team of customer service specialists located in each distribution center, as well as our Collierville home office, who are always a phone call away.
+Orgill's sales have doubled over the past ten years, and are 15x what they were in 1990. The growth is a direct result of the company's focus on its mission to "Help Our Customers Be Successful".
+Interested in a career with Orgill? Visit www.orgill.com/careers
       </t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>6655 Peachtree Dunwoody Rd, Atlanta, GA 30328, United States</t>
+          <t>4100 S Houston Levee Rd, Collierville, TN 38017, United States</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>http://www.newellbrands.com/</t>
+          <t>https://www.orgill.com/Default.aspx</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lauren Pinto (Debrowski)</t>
+          <t>Bryan Stephan</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Director of Ecommerce, North America</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I have over 12 years of experience working with high-growth CPG brands, predominately in beauty and health &amp; wellness, driving online strategy and execution for success and profitability across DTC and Amazon channels. I’ve scaled brands from &lt;$10M to $100M+ while meeting and exceeding KPIs around ROI, LTV, CAC and more.
-Skills:
-- Digital growth marketing : paid social, email, SMS, SEM, CRO, affiliate/ambassador networks, influencer, media buying, SEO
-- Lifecycle marketing : email, SMS, loyalty, CRM, churn prevention
-- Offline marketing : Out of home, direct mail, radio / podcast
-- Strategic planning : marketing calendars, content testing, A/B testing, campaign go-to-market strategy, product launch go-to-marketing strategy
-- DTC ecommerce operations: inventory management, forecasting, merchandising, site management and development
-- Amazon Seller Central, FBA/FBM, strategy and advertising
-- Data analysis and strategic optimizations
-</t>
-        </is>
-      </c>
+          <t>VP of Ecommerce</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/laurendebrowski</t>
+          <t>https://www.linkedin.com/in/bstephan</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -715,7 +734,7 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>New York City Metropolitan Area</t>
+          <t>Ventura, California, United States</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -725,53 +744,47 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>BYREDO</t>
+          <t>Stance</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t xml:space="preserve">        "Beauty can be many things to many people. Our job is to inspire people to be themselves." Ben Gorham, Founder of BYREDO.
-At BYREDO, we are reinventing the world of luxury through a new approach with a creative ambition : connecting with people. This comes in various forms, from iconic Fragrance to vibrant Make-up or limitless ByProduct, spanning a broad range of pieces – from leather goods to eyewear, blankets to baskets, jewelry to home design. 
-Our products embody the power of self-expression, enabling you to craft your own definition of beauty. 
-We believe that through creativity, we are able to develop timeless products, both meaningful and inspirational, to people and their lives.
-We believe that only great people can design &amp; bring those beautiful projects to life.
-We believe in talents vs profiles, in experience vs education, in uniqueness vs conformity, in freedom vs conventions.
-We believe that only powerful teams can lead together the growth of the company, and therefore, we are highly committed to our people.
-At BYREDO we come as we are, with the intention to learn from each other and go beyond business objectives.
-We thrive to create an inclusive and diverse workplace in which all applicants and employees can feel free, encouraged, and empowered to express their talents. 
+          <t xml:space="preserve">        In 2009, we took the stance to reimagine what was once a stagnant staple and transform socks into one of fashion’s most exciting accessories. By unlocking the creative potential of an open canvas too often overlooked, we ignited a worldwide cultural movement that has attracted visionary artists, athletes and icons to embrace our positive message of individuality, movement and self-expression. In the years since, our vision has expanded from toe to head with a full line of colorful apparel styles for a life in motion… because why should feet have all the fun? Through a bold combination of technological innovation, superior comfort and fresh artistic design that has become the foundation of our brand, Stance apparel can now be found in over 40 countries for anyone looking to defy convention. We are Stitched Different®. 
       </t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>San Clemente, California 92673, United States</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>http://byredo.com/</t>
+          <t>http://www.stance.com/</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Stéphanie CHAUVIN</t>
+          <t>Ammar Zeno</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Directrice e-commerce Europe DIM, Playtex et Lovable</t>
+          <t>Head of Ecommerce</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>E-commerce (définition stratégie, conception architecture, management P&amp;L, pi…Show more</t>
+          <t xml:space="preserve">With over a decade of experience in managing and executing digital projects and initiatives, I am a seasoned ecommerce leader who holds a bachelor's degree in Computer Information Systems. I have a strong background in customer relationship management, last mile delivery, and digital marketing, which enables me to create and implement effective ecommerce strategies that enhance online presence, performance, and profitability.
+As the Head of Ecommerce at Majid Al Futtaim, I am passionate about aligning the ecommerce vision and goals with the company's mission and values, and delivering positive EBITDA growth and NPS improvement. I have successfully moved the online business to a profitable state in 1.5 years and doubled the market share and company profitability. I have also launched and led innovative projects, such as free WIFI, queue busting, valet trolley, and web CSI, that increased sales by 5-10%. I am a collaborative and communicative leader who empowers and inspires my team to achieve excellence and customer satisfaction.
+</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/stephaniechauvin</t>
+          <t>https://www.linkedin.com/in/ammar-zeno-b99a3b86</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -781,7 +794,7 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Greater Paris Metropolitan Region</t>
+          <t>Kuwait City, Al Asimah, Kuwait</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -791,33 +804,32 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>DIM</t>
+          <t>Trolley</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t xml:space="preserve">        DIM Brands International (DBI) est un fabricant et distributeur éco-responsable de sous-vêtements des marques parmi les plus fortes au monde (DIM, Nur Die, Lovable, La Senza...) pour toute la famille. DIM est le leader du marché en France et la marque préférée des consommateurs français (étude Kantar, janvier 2021), Nur Die est le leader du marché en Allemagne dans le segment des produit de consommation, Lovable est un solide second sur le marché italien de la lingerie et La Senza est une marque canadienne emblématique de sous-vêtements. Les produits DIM sont distribués en Omnicanalité (GMS, Ecommerce et Boutiques DIM).
-Fondée en 1960, DBI a une longue tradition d'innovation et d'excellence. En 2022, l'entreprise a retrouvé son indépendance et entend accélérer sa croissance en s'appuyant sur une stratégie claire basée sur quatre axes : le développement de ses marques phares, un solide programme d'innovations produits, une stratégie omnicanale forte et un programme d'excellence opérationnelle continue. "Simplification and Scale" est notre devise stratégique. Notre ambition est d'ouvrir un nouveau cycle de croissance rentable et de réaliser le plein potentiel mondial de la marque DIM. 
-Le siège de DBI est situé à Rueil-Malmaison, près de Paris, avec des filiales dans toute l'Europe (DACH, Italie, Ibérie, Europe de l'Est, Canada) et des distributeurs au Moyen-Orient, en Asie et en Afrique. Son centre d'approvisionnement (fabrication et logistique) est basé à Autun, en Bourgogne, où plus de 5 milliards de collants ont été produits depuis la création de DIM ! De plus, nous sommes profondément engagés dans une stratégie dynamique ESG, structurée autour de 3 piliers : Planète, Produit, Personnes. Par exemple, la marque DIM est neutre en CO2 scope 1&amp;2, grâce à un mix de réduction et de capture des émissions. 
-#dimparis #sustainability #fashion
+          <t xml:space="preserve">        Trolley is a Kuwaiti chain of convenience stores founded in September 2008 catering to the niche markets at private universities and malls before making its way to the gas stations. Filling the huge gap in Kuwait retail arena – Trolley is rapidly expanding into gas station to offer customers ease of shopping in their close proximity and defining the true meaning of convenience in the country
+Trolley offers a large range of everyday consumables in a wide spread of categories focusing the ultimate customer satisfaction, no compromise on quality and value for money
+Trolley is committed to create the brand of choice for consumers by giving Kuwait a “One Stop Shop” solution for all their quick needs. Once entered a Trolley store customer will not only be able to shop for your daily needs but will also be able to enjoy the coffee of choice, will be able to fulfill all their cellular needs, or pick a Pre-cooked meal all under one roof -24 hours 7 days a week
       </t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2, Rue des Martinets, Rueil-Malmaison , France 92500, France</t>
+          <t>Sharq - Block-3 - Khaled Bin Alwaleed St., 5th. Floor, Kuwait City, Capital Governorate P.O.Box:26080. Safat, 13121 Kuwait, Kuwait</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>http://www.dim.fr/</t>
+          <t>https://www.trolley.com.kw/</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Jill Safinski Ginsberg</t>
+          <t>Uğur Akbıyık</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -827,22 +839,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>As an experienced e-commerce, digital, and marketing executive, I bring creativ…Show more</t>
+          <t xml:space="preserve">I am a highly qualified, results-oriented E-Commerce Executive, well-versed in creating and implementing intelligent policies to address e-commerce challenges (e.g. which infrastructure, which marketplace) and applying 'in-depth' knowledge of the plans and priorities required to deliver outstanding conversion results.
+Combining over 15 years of experience in E-commerce and E-Exports with a 'hands-on' leadership approach, I have a track record of breaking down barriers and achieving successful results. For example, as part of my E-export work, I have managed the sales/shipping of products on some of the world's most important marketplaces, including Asos in the UK, Afound in Sweden, Zalando in Germany, and then used my initiative to take smart measures to ensure the success of the program and maintain the good reputation of the brand. In addition, I have been involved in one of the leading players in the region to develop my hardcore logistics experience.
+My specialty is to analyze problems and come up with smart and robust solutions. I have shared this skill with people as a speaker at conferences organized in many cities in Türkiye.
+Besides the technical aspects of program management delivery, my strong leadership and effective communication skills instill confidence in C-Level, stakeholders and colleagues to ensure transparency, create synergy and build an environment of trust, respect and collaboration.
+Areas of Expertise:
+E-Commerce / E-Export / E-Commerce Logistics / Digital Marketing / Marketplaces / Government Incentives / Effective Management / Team Leadership /
+</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/jsafinski</t>
+          <t>https://www.linkedin.com/in/ugurakbiyik</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> https://ugurakbiyik.blogspot.com/;</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>New York City Metropolitan Area</t>
+          <t>Istanbul, Türkiye</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -852,48 +874,54 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>The Laundress, LLC</t>
+          <t>Armine</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Cofounders Gwen Whiting and Lindsey Boyd, New York fashion executives who met studying Textile &amp; Fiber Science at Cornell, set out to revolutionize laundry. Frustrated with costly dry cleaning bills and no good way to care for their wardrobe investments at home, they left their careers at Ralph Lauren and Chanel to develop expert solutions for people to care for their clothes as much as they care about them.
-In 2004, The Laundress was founded, introducing a pioneering collection of fabric-specific products scented with sophisticated fragrances that extend the lifespan of clothing and eliminate the chemicals and cost of dry cleaning.
-Today, The Laundress empowers a passionate global community to take care of the clothes they love with exceptional fabric care and cleaning expertise.
+          <t xml:space="preserve">        1994 Yılında kurulan Kamer Tekstil, üretimini kendi bünyesinde gerçekleştiren ipek eşarp markası olarak tekstil sektörüne ilk adımını attı. Kısa sürede büyük kitlelerin beğenisini kazanarak Türkiye’de eşarp üretim ve satış konusunda faaliyet gösteren prestij sahibi bir marka oldu.
+2006 yılı itibariyle bayan giyim üretimine de başlayarak ürün gamını genişletti. Hazır giyim sektöründe, gelişmesine ivme kazandıran zincir mağazalaşmanın etkisi ile yurt içinde hızla kabul gören, pazar konumunu kısa zamanda pekiştiren, bayan giyim sektörünün ön sıralarda yerini alan bir marka haline geldi. 2008 yılında Türkiye’nin en çok eşarp satan firması oldu.
+Armine, Bursa’da 9.600 m2 kullanım alanına sahip, ileri teknolojiyle donatılmış tesislerinde eşarp üretimi gerçekleştirmektedir. İstanbul Bayrampaşa’da kurduğu üretim tesisinde ise hazır giyim için hizmet vermektedir. Şirket bünyesinde 600 kişilik ekip çalışmaktadır.
+Armine kuruluşundan itibaren kararlı ve istikrarlı büyüme sürecinin bir sonucu olarak 2011 yılından bugüne Eyüp’teki merkez binasında konumlanmaya devam etmekte, bünyesinde bulunan 48 Mağaza ve 20 franchise şubesi ile mağazacılık hizmeti vermektedir. Ayrıca online satış sitesiyle müşterilerine internet kanalıyla da ulaşabilmektedir.
+Gelişime verilen değerle çalışanlarına kurumsal yetkinlikler, iletişim becerileri, müşteri odaklılık ve ticari düşünme hakkında eğitim programları uygulanmaktadır. Bununla birlikte liderlik ve yönetme, yönetici yetkinliği, takım çalışması ve organizasyon eğitimleri ile yönetici adayları yetiştirilmektedir.
+Misyonumuz;
+Sosyal yaşamın her an içinde olan muhafazakar kadına kaliteli, modern ve şık modayı ulaşılabilir kılmak.
+Vizyonumuz;
+Dünya’da bilinen en iyi ve en kaliteli muhafazakar giyim markası olmak.
       </t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>199 Prince St, New York, NY 10012, United States</t>
+          <t>Topçular, Sahabeler Cd, Eyüpsultan/İstanbul, İstanbul, Eyüpsultan 34055 , Türkiye</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>http://www.thelaundress.com/</t>
+          <t>http://www.armine.com/</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Kendra E.</t>
+          <t>Jocelyn Nagy</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Member Board of Directors</t>
+          <t>Director Of Ecommerce</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">I am a seasoned industry executive, who has dedicated decades of expertise to the growth and success of brands. With a passion for branding and marketing, I have played a pivotal role in elevating various companies through innovative digital strategies. Through years of hard work and dedication, I have honed my skills in marketing and branding, becoming a trusted figure in the industry. Leveraging my creativity and strategic mindset, I have implemented cutting-edge digital strategies that have propelled brands to new heights in the competitive digital landscape.
+          <t xml:space="preserve">Experienced cross-functional, eCommerce project leader with a passion for global strategy, innovation and implementing change. Highly collaborative manager responsible for delivering a customer-centric eCommerce experience to drive growth and engagement. Excellent team player and communicator with a demonstrated ability to manage across levels and departments.
 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/kendra-e-38a01749</t>
+          <t>https://www.linkedin.com/in/jocelyn-nagy-7772a71b</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -903,7 +931,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>New York, New York, United States</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -913,46 +941,54 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Fashion Group International, Inc.</t>
+          <t>Tommy Hilfiger</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t xml:space="preserve">        The Fashion Group International is a global, non-profit, professional organization with members in the fashion and related industries founded in 1930 by charters Eleanor Roosevelt, Carmel Snow, Helena Rubinstein and other accomplished, progressive women to connect and support their industry communities through discussions and shared resources. 
-FGI believes that providing a forum for professional development and career advancement unleashes creativity, innovation and advances the business of fashion.
+          <t xml:space="preserve">        TOMMY HILFIGER is one of the world’s leading designer lifestyle brands creating a platform that inspires the modern American spirit, while committing to wasting nothing and welcoming all. 
+Founded in 1985, Tommy Hilfiger delivers premium styling, quality and value to consumers worldwide under the TOMMY HILFIGER and TOMMY JEANS brands, with a breadth of collections including HILFIGER COLLECTION, TOMMY HILFIGER TAILORED, men’s, women’s and kids’ sportswear, denim, accessories, and footwear. In addition, the brand is licensed for a range of products, including fragrances, eyewear, watches and home furnishings. Founder Tommy Hilfiger remains the company’s Principal Designer and provides leadership and direction for the design process.
+Tommy Hilfiger, which was acquired by PVH Corp. in 2010, is a global apparel and retail company with more than 16,000 associates worldwide. With the support of strong global consumer recognition, Tommy Hilfiger has built an extensive distribution network in over 100 countries and more than 2,000 retail stores throughout North America, Europe, Latin America and the Asia Pacific region. Global retail sales of the TOMMY HILFIGER brand were US $9.2 billion in 2019.
       </t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>8 West 40th Street, 7th Floor, New York, NY 10018, United States</t>
+          <t>Danzigerkade 165, Amsterdam, North Holland 1013, Netherlands</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>http://www.fgi.org/</t>
+          <t>http://www.tommy.com/</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Laila K.</t>
+          <t>Rasmus Thau Høgsted-Riddersholm</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Director, eCommerce at InvictaStores.com</t>
+          <t>Ecommerce Director</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Experienced Ecommerce Manager with a demonstrated history working in various industries. Skilled in SEO and SEM Strategy, Content and Email Marketing, and lead generation, I help companies build their brand and drive quality traffic to their websites.</t>
+          <t xml:space="preserve">I'm strategic and commercial thinking, with a strong drive to create results and customer satisfaction.
+With extensive experience from both client and agency side, I can document strong understanding towards solving complex business challenges across platforms, markets and segments.
+Specialties:
+- Online sales / digital commerce, Omnichannel strategy, business development, user experience, and data-driven marketing disciplines
+- Growth Mindset and Design Thinking
+- Team management, development and everyday joy
+- Speaker on both danish and foreign conferences presenting Omnichannel cases. Giving Lectures at University
+</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/laila-kabani-is-awesome</t>
+          <t>https://www.linkedin.com/in/rasmusriddersholm</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -962,7 +998,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Hollywood, Florida, United States</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -972,70 +1008,48 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Invicta Stores</t>
+          <t>YouSee</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Invincible in detail since 1837, Invicta is known for offering supremely crafted timepieces for modest sums to satisfy the evolving fashion needs of its dedicated fans. Invicta watch stores showcase the world's largest selection of Invicta-style accessories for men and women. Known for legendary service, Invicta Stores believe in demonstrating the quality, value, and care in every timepiece to all who pass through our doors. Visit our website at invictastores.com for more information. 
-We are always looking for great team members with varying levels of experience. Finding the right people for the team is significant to our success. Visit www.invictastores.com/careers for an incredible opportunity with Invicta Stores in the retail fashion industry.
-Visit our stores today!
-FLORIDA:
-Daytona Beach Tanger Outlets
-Orlando Premium Outlets
-Sarasota University Town Center
-Sawgrass Mills
-Brandon Mall
-Westland Mall
-West Palm Beach Tanger Outlets
-Bayside Marketplace
-GEORGIA &amp; MID-ATLANTIC:
-Perimeter Mall
-Mall at Prince George's
-Christiana Mall
-ARIZONA:
-Glendale/Phoenix Tanger Outlets
-TEXAS:
-North Star Mall
-The Outlet Shoppes at El Paso
-NEW YORK:
-Cross County Center
-Queens Center Mall
-PUERTO RICO:
-Plaza Las Americas
-Barceloneta Premium Outlets
-Mayaguez Mall
-Plaza del Caribe
-San Juan Airport
+          <t xml:space="preserve">        YouSee er Danmarks største underholdningsunivers med masser af tv-kanaler, film, serier og musik. Underholdning som man kan se og høre overalt i Danmark på sit tv, sin mobil, tablet og pc. YouSee leverer underholdning til næsten halvdelen af alle danske husstande – enten direkte eller via antenne-/boligforeninger.
       </t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>405 SW 148th Ave , Davie, Florida 33325, United States</t>
+          <t>Teglholmsgade 1, 0900, Kbh C, Denmark</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/sales/company/www.invictastores.com/careers</t>
+          <t>https://yousee.dk/</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>danielle muir</t>
+          <t>Catherine Harpe Neal</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Director of Ecommerce Operations</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+          <t>Director, eCommerce &amp; Customer Operations</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Strong operations professional, with a proven track record in fulfillment and warehousing, eCommerce operations, supply chain logistics, and client success/advocacy. Catherine possesses a high-energy, hands-on management style, and uses it to provide clients with the high quality outcomes necessary for success in the fast-paced world of eCommerce. She has a passion for problem solving and process building, especially within complex and high-growth environments. She also excels in areas pertaining to organizational culture, and holds a firm belief that a successful organization must always maintain a willingness to invest in &amp; uplift their employees.
+Relational business is always preferential to transactional business.
+In her spare time, Catherine can be found walking her dogs on the beach, writing articles for local 'zines, and attempting to master the art of the perfect pour over.
+</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/in/muirdanielle</t>
+          <t>https://www.linkedin.com/in/catherine-harpe-neal-284971203</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -1045,7 +1059,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Los Angeles Metropolitan Area</t>
+          <t>North Charleston, South Carolina, United States</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1055,24 +1069,1096 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>RE/DONE</t>
+          <t>Parch Spirits Co</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Iconic. Sustainable. Individual.
-Launched in July 2014 by Sean Barron and Jamie Mazur, RE/DONE has become known for reconstructing Levi’s® vintage jeans into modern fits, giving a sense of uniqueness and rareness to each consumer. RE/DONE | Levi’s jeans are a celebration of the Levi’s® jean’s past and a continuation of the jean’s individual story. RE/DONE  is a movement to restore individuality to the luxury fashion space, a movement to keep heritage brands relevant, and a movement to create sustainable fashion. It is the first luxury label that was born online and grown as an e-commerce brand, available at www.shopredone.com as well as select retail touch-points around the globe.
+          <t xml:space="preserve">        Parch is a distinctive, non-alcoholic agave spirit inspired by the Sonoran Desert and the lush biodiversity that it keeps. Each sip offers a complex taste from unique pairings of desert ingredients based on the ethos that "if it grows together, it goes together". Our blend of functional herbs and desert botanicals is designed to help center your mind and body, serving a social drinking experience like no other.
       </t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1935 E 7th St, Los Angeles, CA 90021, United States</t>
+          <t>5151 E Broadway Blvd, Tucson, AZ 85711, United States</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>http://www.shopredone.com/</t>
+          <t>https://www.drinkparch.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Paul Kennedy</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>VP, Ecommerce</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/prkennedy</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> http://www.applovin.com/;</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>San Francisco Bay Area</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>7/2/2024</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>AppLovin</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        AppLovin makes technologies that help businesses of every size connect to their ideal customers. The company provides end-to-end software and AI solutions for businesses to reach, monetize and grow their global audiences. AppLovin is headquartered in Palo Alto, California, with several offices globally.
+      </t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>1100 Page Mill Rd, Palo Alto, California 94304, United States</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>http://www.applovin.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Vicente Sebastian Del Valle Papić</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>America Ecommerce, Senior Expert</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Professional with a diverse background spanning various industries—including sports, sporting goods, culture, consumer goods, energy drinks, skincare, beauty, clothing, and outdoor— I'm driven by my passion for implementing innovative, data-driven strategies. Over the years, I've achieved notable milestones, from successfully launching and managing e-commerces, performance marketing strategies, CRM set up and spearheading the highly successful PUMA APP and led the creation and develop of the PUMA mobile engagement strategy for SMS/MMS.
+It's all about data.
+</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/vicentedelvalle</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Miami, Florida, United States</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>7/2/2024</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>MANGO</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Mango, one of Europe’s leading fashion groups, is a global company with design, creativity and technology at the centre of its business model, and a strategy based on constant innovation and the search for sustainability. 
+With its roots in Barcelona, one of the cradles of the textile industry, since it was founded in 1984, Mango has spent four decades looking to the future and inspiring the world with its passion for fashion and lifestyle. With the customer always its priority, the company bases its model on a unique fashion proposal focused on translating key fashion trends into its own language. At the El Hangar Design Centre, located at the company headquarters (Palau-solità i Plegamans, Barcelona), the company works on all areas related to creativity and every year creates over 18,000 garments and accessories. 
+Present in more than 115 markets and with a network of close to 2,700 stores, Mango adapts to each country with a complete ecosystem of channels and international partners. The company closed 2023 with a turnover of 3.1 billion euros, with 33% of turnover coming from its online channel and with a workforce of more than 15,500 employees in all five continents.  
+More information at www.mangofashiongroup.com 
+      </t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Mercaders 9-11, Poligono Industrial Riera de Caldes, Palau Solità i Plegamans, Barcelona 08184, Spain</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>https://jobs.mango.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Anthony S.</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Vice President of DTC eCommerce</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Omni-Channel retail VP and Department lead.
+Head of DTC &amp; Vice President of eCommerce:
+Seasoned retail and wholesale professional with over 20 years of experience in the industry.
+-Branded and private label expertise. Market and trend analysis for all levels of sales distribution: discount, mid-tier, department stores, sporting goods, big box, athletic specialty, vertical DTC and eCommerce.
+-Omni-channel sales, marketing, operations, data analytics and order fulfillment. Creative self-starter with a strong desire to drive top line sales and profitability. Focus on strategic market share growth and brand building.
+</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/anthony-s-24978912</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> http://www.helenoftroy.com/;</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>7/2/2024</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Helen of Troy</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Helen of Troy Limited (NASDAQ: HELE) is a leading global consumer products company offering creative products and solutions for our customers through a diversified portfolio of well-recognized and widely-trusted brands.
+Look around your home, and you'll find us everywhere: In your kitchen, living room, bedroom, and bathroom. 
+We are already making your everyday lives better. 
+We are powered by knowledgeable, enthusiastic, and forward-thinking people committed to developing a culture of inclusion. 
+Whether you are just starting your career or in need of a challenge, we recognize, develop, and empower talent! 
+      </t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>1 Helen of Troy Plaza, El Paso, Texas 79912, United States</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>http://careers.helenoftroy.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Caleb Smith</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Director of Ecommerce</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">E-Commerce leader with over 20+ years of Fortune 500 experience, focused on the growth of people, technology, and the customer experience.
+Currently, I am the Director of eCommerce at City Furniture, South’s Florida’s number one furniture and mattress retailer, recognized in 2022 by Linkedin as the Number 9 company in retail to grow your career.
+Prior to that I spent over 20 years at Office Depot Corporation leading teams across several areas of both the B2C and B2B segments including creative technology, creative operations, private brand, in-store experience and ultimately eCommerce where I led the digital experience teams for our B2B and B2C web sites.
+From 2020-2021, I led technology experience optimizations for our consumer web site that resulted in us being recognized as Newsweek's Number 3 Consumer Technology Site for 2021.
+Featured speaker:
+DALIM DUO - North America
+"Making Money &amp; New Business
+DALIM DUO - NORTH AMERICA 
+"Project Challenges, 
+Future Shock &amp; Human Factors”
+</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/calebsmithdigital</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Lake Worth, Florida, United States</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>7/2/2024</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>CITY Furniture</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Where We’ve Been
+The year was 1971 when recent college grad Kevin Koenig used $1,500 in savings to open a store called Waterbed City in Fort Lauderdale. Partnering with his brother, Keith, they quickly grew the business, selling waterbeds for the value price of $29.95. As the decades passed the industry changed, so the entrepreneurs reinvented the brand as CITY Furniture in 1994, adding furniture and décor into the mix.
+Where We Are
+Today CITY Furniture is South’s Florida’s number one furniture and mattress retailer. We’ve stayed true to that original vision of value, offering the widest range of styles at the best prices and quality. Our services have expanded to provide customers with a superior shopping experience, like free design and the industry’s fastest delivery. And as our business grows, we remain rooted in our history of family spirit and local community, working every day to give back and take care of our world.
+Where We’re Going
+The future has never looked brighter. Our showrooms and warehouses are expanding into Tampa and beyond, as we strive to become a best place to work. We’re growing our product categories to include more options than ever, establishing our place as trend leader in home design. We’re also building a frictionless, world-class customer experience, using a winning combination of technology and teamwork. All the while, we’re doing more for our community, taking our 2040 Green Promise and CITY’s 5% Giving Pledge to new levels.
+JOIN OUR TEAM – YOU’LL THANK YOURSELF LATER!
+http://jobs.cityfurniture.com
+      </t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>6701 North Hiatus Road, Ft. Lauderdale, Florida 33321, United States</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>http://www.cityfurniture.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Alexandre Felice</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Head of Ecommerce</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Profissional de Marketing e Vendas com experiência em projetos direcionados a desenvolvimento do varejo, sobretudo em canais digitais e omnichannel, que ajudem a potencializar o negócio e propor soluções de percepção de imagem, melhorando o posicionamento das empresas junto ao seu público-alvo e stakeholders, conforme os objetivos e otimização de resultados.
+</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/alexandre-felice-8879b026</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>São Paulo, São Paulo, Brazil</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>7/2/2024</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Integralmédica Suplementos Nutricionais</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        A Integralmédica é pioneira e líder no mercado brasileiro de suplementos nutricionais, foi fundada no ano de 1983, desde então é consagrada como a maior autoridade nacional em pesquisas e desenvolvimento de produtos, focando na melhoria da performance e qualidade de vida das pessoas.
+Na área da suplementação esportiva a Integralmédica se destaca como uma das maiores autoridades em pesquisas e desenvolvimento de produtos da América Latina sendo reconhecida por estar permanentemente trazendo ao mercado suplementos de última geração, criando o hábito do consumo de suplementos na vida de frequentadores de academias, atletas, esportistas em geral e pessoas que buscam melhor qualidade de vida e longevidade.
+A Integralmedica é a patrocinadora oficial do UFC no Brasil!
+Visite o nosso site:
+www.integralmedica.com.br
+Nutricé Laboratoires é uma divisão da Integralmedica e destaca-se no mercado brasileiro de nutrição estética, segmento conhecido como nutricosméticos, com uma completa linha de produtos in to out care (beleza de dentro para fora). 
+Visite o nosso site e conheça todos os nosso produtos e novidades!
+www.nutrice.com.br
+Se você se identifica conosco, venha fazer parte do nosso time e cadastre o seu currículo no link a baixo:
+https://www.vagas.com.br/PagEmpr.asp?e=integralmedica&amp;t=24
+      </t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Av. Cidade Jardim, 400 - 1° andar, Jardim Europa, São Paulo, SP 01454000, Brazil</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>https://www.integralmedica.com.br/</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Elizabeth Heineman</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Member</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">With over 15 years of experience in the direct-to-consumer fashion and accessories sector, I have honed my expertise in driving substantial growth, revenue, and customer loyalty through innovative, data-driven, and omni-channel marketing strategies. My leadership spans across roles where I've managed cross-functional teams and significant budgets, demonstrating proficiency in executing comprehensive marketing strategies that enhance efficiency and ROI. I have a track record of success in restructuring performance marketing, launching and scaling affiliate programs, advancing SEO initiatives, and spearheading retention marketing efforts that significantly boost traffic, conversions, and customer lifetime value.
+My strategic approach consistently optimizes the media mix to ensure financial efficiency and robust profit and loss (P&amp;L) management. Beyond tactical executions, my work involves guiding brand positioning across various channels and managing pivotal vendor relationships. My passion for growth and innovation, coupled with a keen insight into consumer trends, empowers me to deliver creative and visionary marketing solutions. I'm committed to fostering a culture of collaboration, nurturing talent within my teams, and continuously pursuing opportunities for learning and improvement in the ever-evolving landscape of fashion retail.
+</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/elizabeth-heineman-7670642</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> http://www.verabradley.com/;</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Churubusco, Indiana, United States</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>7/2/2024</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Women in Retail Leadership Circle</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        ✨ 𝐁𝐮𝐢𝐥𝐭 𝐛𝐲 𝐖𝐨𝐦𝐞𝐧 | 𝐌𝐚𝐝𝐞 𝐟𝐨𝐫 𝐖𝐨𝐦𝐞𝐧 | 𝐃𝐞𝐬𝐢𝐠𝐧𝐞𝐝 𝐭𝐨 𝐂𝐡𝐚𝐦𝐩𝐢𝐨𝐧 𝐖𝐨𝐦𝐞𝐧 ✨
+𝐖𝐡𝐨 𝐖𝐞 𝐀𝐫𝐞
+Women in Retail Leadership Circle (WIRLC) is an exclusive community of women executives at leading retailers and brands. Our mission is to foster leadership development for our members by providing an unparalleled mix of events, content and elite connections. 
+Our community is comprised of successful, motivated and passionate women from the entire retail and brand ecosystem who have a strong belief that investing in themselves and in other women is good business. From CEOs with years of experience to directors working their way up, the common thread is women coming together to learn from each other and help each other succeed. 
+𝐖𝐡𝐚𝐭 𝐖𝐞 𝐎𝐟𝐟𝐞𝐫
+Focused on both business strategy and executive professional development, WIRLC offers women leaders the opportunity to network, discuss industry issues, and learn how to become better leaders.
+The energized core of our community stems from the dedicated members who believe and support our mission. Beyond directly connecting with the industry’s elite women leaders, benefits of membership include discounted event registration, exclusive member-only content, a private networking forum, and so much more.
+𝐇𝐨𝐰 𝐖𝐞 𝐆𝐨𝐭 𝐇𝐞𝐫𝐞
+WIRLC is the sister brand of Total Retail, the go-to source for executives looking for the latest news and analysis on the retail industry. WIRLC was founded by Jennifer DiPasquale and Melissa Campanelli to address the inequity between women in leadership positions within the retail industry vs. overall women in the industry. A space was needed to connect and uplift these women, and WIRLC was born.
+𝐉𝐨𝐢𝐧 𝐨𝐮𝐫 𝐜𝐨𝐦𝐦𝐮𝐧𝐢𝐭𝐲 𝐚𝐧𝐝 𝐢𝐧𝐯𝐞𝐬𝐭 𝐢𝐧 𝐲𝐨𝐮𝐫𝐬𝐞𝐥𝐟 𝐚𝐧𝐝 𝐲𝐨𝐮𝐫 𝐛𝐮𝐬𝐢𝐧𝐞𝐬𝐬. 𝐕𝐢𝐬𝐢𝐭 𝐭𝐡𝐞 𝐥𝐢𝐧𝐤 𝐛𝐞𝐥𝐨𝐰!
+      </t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>1500 Spring Garden St, Philadelphia, Pennsylvania , United States</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>https://www.womeninretail.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Bernard Schmidt</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Sr. Director of eCommerce</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Drives strategic vision and guides Fortune 500 companies toward success as a seasoned leader in digital transformation. Pioneers products from startup inception to full-scale impact, consistently achieving profitable growth and results. This includes creati…Show more</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/bernardschmidt</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> bj.schmidt@gmail.com;</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Cincinnati, Ohio, United States</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>7/2/2024</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>National Vision Inc.</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        National Vision is one of the largest optical retail companies in the United States with over 1,100 stores in 38 states and Puerto Rico. 
+We help people see their best to live their best through our optical products and services. For more than 30 years, we have been improving lives by providing eye care for value-seeking and lower-income consumers.
+Retail brands include America’s Best Contacts &amp; Eyeglasses, Eyeglass World, and Vista Opticals inside select Fred Meyer stores and on select military bases, and e-commerce websites, offering a variety of products and services for customers’ eye care needs.
+      </t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>2435 Commerce Avenue , Bldg 2200, Duluth, GA 30096, United States</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>http://www.nationalvision.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Jaime Espinoza</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Head of Ecommerce</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Commercial Engineer and Executive MBA candidate in IE Business School with a solid 15-year experience in internationally renowned companies like Unilever and Softys (CMPC), specializing in marketing, trade marketing, sales, and e-commerce leadership. My career includes implementing commercial strategies and founding e-commerce initiatives in Latin America, with a significant commitment to the circular economy and sustainability. Known for driving digital transformation and growth in omnichannel platforms, I have a proven track record in leading multifunctional teams to success in highly competitive and changing markets.
+KEY SKILLS
+E-commerce &amp; Digital Transformation Strategy: Led the creation and strategy of the e-commerce area at Softys, implementing disruptive solutions like "Softys Prime" and enhancing the development of marketplaces that exceeded sales expectations.
+International Business Management &amp; Start-Up Leadership: Responsible for the expansion and management of start-ups in Ecuador, promoting strategic alliances and leading new market ventures with accelerated growth and recognitions in innovation and sustainability.
+Leadership &amp; Team Development: Lead high-performance teams in multicultural environments, achieving market leadership positions in CPGs and an increase in EBITDA.
+Data-Driven Mindset &amp; Technological Fluency: Continuously trained in Data Science and Big Data by MIT, I apply a data-driven approach to optimize decision-making and improve e-commerce operations.
+Customer Experience Innovation: Enhanced customer experience by implementing technologies like SAP Hybris, Vtex, and SEO optimization techniques, resulting in a 300% increase in organic traffic.
+</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/jaimespinoza</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Santiago, Santiago Metropolitan Region, Chile</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>7/2/2024</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Softys</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Convidamos você a ser parte de uma equipe comprometida em desenvolver marcas que entreguem o melhor cuidado que as pessoas necessitam no seu dia a dia e em cada fase de suas vidas.
+Somos uma empresa preocupada com as necessidades das pessoas. Através das nossas marcas e produtos cuidamos das pessoas e de suas necessidades diárias, proporcionando segurança, tranquilidade, autonomía e liberdade que necessitam em cada etapa de suas vidas com marcas icónicas e queridas como Elite® , Higienol®, Confort®, Nova®, Sussex®, Babysec®, Cotidian®, Ladysoft® e Elite Professional®. 
+Estamos próximo às pessoas em todos os momentos para que ninguém se sinta sozinho no cuidado de suas necessidades, impactando positivamente na qualidade de vida.
+Na Softys estamos comprometidos com a inovação na qualidade, inovando em processos e estratégias, priorizando a melhoria contínua no aspecto tecnológico, pessoal e necessidades dos consumidores.
+Temos um compromisso real com a sustentabilidade, cuidando que todas as nossas ações se enquadrem dentro do marco de respeito no entorno social, das comunidades e do meio ambiente. 
+Buscamos que os nossos produtos sejam acessíveis, estando sempre disponíveis e próximo das pessoas e suas necessidades, em todos os lugares onde eles estão e com um valor de acordo com as suas possibilidades.
+Somos parte do grupo CMPC e estamos presente em 8 paises da América Latina.
+Se o cuidado e a inovação são parte da tua fibra, una-se a este grande propósito.
+      </t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Santiago, Región Metropolitana 8340432, Chile</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>http://www.softys.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Veronika Nikolaeva</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Director of Ecommerce</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/veronikanikolaeva</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> https://twitter.com/v_nikolaeva;</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Greater Madrid Metropolitan Area</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>7/2/2024</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Auchan Retail</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        To create new-generation retailing that improves people’s lives, Auchan Retail places customers at the centre of its actions and reaffirms the retailer’s role: that of a multi-format, “phygital” activist for good, healthy, local produce that constantly reinvents itself to deliver a new customer experience – one that’s close, connected, surprising and considerate.
+Auchan Retail’s 1,985 points of sale offer all forms of retailing in 12 countries: hypermarkets, supermarkets and ultra convenience stores – all supplemented by the power and flexibility of e-retail. We’re one of the largest employer worldwide, with 179,590 employees.
+      </t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>40 avenue de Flandre, BP139, Croix, Lille 59964, France</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>http://www.auchan-retail.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Marilee Clark</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Director of Ecommerce &amp; Digital Marketing</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Champion of digital marketing tools and technologies, with a track record of creating and implementing award-winning social media, web and email marketing campaigns. Works closely with C-level executives, product and marketing teams to develop and execute a proactive, marketing and editorial content calendar, managing all phases digital marketing initiatives from concept through delivery and optimization.
+Skills &amp; Specialties: Microsoft Office, Google Analytics, Web administration, Social Media Management, Staff Management, Photoshoot and video creative direction, E-commerce Management, Email Marketing, Digital Strategy, Event planning, Influencer Marketing, Budgeting &amp; Forecasting, Public Relations, Copywriting, Product Development, Product Marketing, SMS Marketing, Affiliate Marketing, Revenue
+</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/marileecclark</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> marileecclark@gmail.com;</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>New York, New York, United States</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>7/2/2024</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>RéVive Skincare</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Founded in 1997, RéVive™ is a luxury skincare line developed by Dr. Gregory Bays Brown, a Plastic and Reconstructive Surgeon. Each product has been scientifically formulated with Bio-Renewal Technology, inspired by patented and Nobel Prize Winning science used by Dr. Brown to heal burn victims. This technology is comprised of three key peptides and clinically proven to help reduce visible signs of aging and delivers fast results. With increased skin renewal and improved collagen and elastin, skin looks rejuvenated and revitalized and signs of aging are dramatically reduced. The appearance of wrinkles is minimized, skin density and elasticity are increased, collagen breakdown is slowed, and dark spots are lightened. Skin acts younger and looks soft, smooth, and glowing. RéVive can be found at reviveskincare.com, select specialty stores and luxury online retailers in the US and UK and other global markets such as Spain, Italy, China and more.
+      </t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>20 W 22nd St, New York, 10010, United States</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>https://reviveskincare.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Steve Chaffin</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Vice President, Ecommerce Partnerships</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20 years experience building and managing Strategic Partnerships and Business Development across a variety of industries including: Saas SMB E-Commerce, Payments, Digital Media, Ad Platforms, Developers, OEMs, Carriers, Omnichannel Retail as well as App Stores globally. Deep expertise working with leading Eco-System Platform Players (Apple, Amazon, Google, Meta).
+Specialties: Strategic Partnerships &amp; Business Development; Mobile Marketing, Distribution &amp; Advertising; Brand Marketing &amp; Strategy; User Acquisition; CRM; Multi-Channel Marketing; Developer Relations; Search; Social; Managing Global Teams.
+</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/stevechaffin</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>San Francisco, California, United States</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>7/2/2024</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Pratt Industries</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Pratt Industries is a leading manufacturer of sustainable corrugated packaging  and display solutions. Founded more than 30 years ago, the company has shown dramatic growth with state-of-the-art facilities in 25 states and Mexico. Pratt is America’s fifth largest corrugated packaging company and the world’s largest, privately-held producer of 100% recycled paper, with more than 10,000 highly-skilled, green-collar employees dedicated to the environment and sustainability. 
+The Georgia-based company operates an extensive Recycling Company to supply six of the most modern, cost-effective 100% recycled paper mills –  in Conyers, GA, New York City, NY, Valparaiso, IN , Shreveport, LA, Wapakoneta, OH and Henderson, KY.
+Pratt is dedicated to the sustainability of the environment, its customers and its people. The cornerstone of Pratt’s mission is to protect and nurture the planet’s natural resources while reducing our impact on the environment by “Harvesting the Urban Forest.” By doing so the company also seeks to help its customers meet their environmental goals.
+Pratt Industries provides equal employment opportunities to applicants and employees without regard to race, color, religion, sex, sexual orientation, gender identity, national origin, protected veteran status, or disability.
+      </t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>1800C Sarasota Pkwy., Conyers, GA 30013, United States</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>http://www.prattindustries.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Taylor Toussaint</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Director Of Ecommerce - North America</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Hey there, I'm Taylor!
+I am passionate about D2C (eCommerce, Amazon, etc.), marketing, developing …Show more</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/taylortoussaint</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> https://www.outdoortechnology.com/; https://twitter.com/taylortoussaint;</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Irvine, California, United States</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>7/2/2024</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Bollé Brands</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Bollé Brands™ encompasses the brands Bollé, Bollé Safety, Spy+ and Serengeti. Thanks to the complementary know-hows and innovative technologies developed by the four brands in their respective fields of activities, Bollé Brands’ expertise covers a large spectrum of products that meet the highest requirements in terms of protection, performance, innovation and style.
+- Bollé is a leader in sport and lifestyle sunglasses, cycling helmets, ski goggles, and ski helmets. For more information, visit www.bolle.com. 
+- Serengeti is a premium sunglasses manufacturer and provides the most advanced lens technology today. For more information, visit www.serengeti-eyewear.com. 
+- SPY+ is a Californian lifestyle and sports brand in lifestyle sunglasses, eyeglasses, gaming glasses, snow goggles, snow helmets, and MX goggles. For more information, visit www.spyoptic.com
+- Bollé Safety has concentrated its expertise on protecting people's eyes at work and nothing else. For more information, visit our website www.bolle-safety.fr.
+      </t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>34, Rue de la Soie, Villeurbanne, Auvergne-Rhône-Alpes 69100, France</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>https://www.bolle.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Ben Sharir</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Director, eCommerce</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">eCommerce enthusiast with +19 years of industry experience in various roles including Solution Architect, ChannelAdvisor consultant, Project Manager, Amazon and multi-channel marketplace seller, Scrum Master, Product Owner, Agile Coach, VP of eCommerce, Board of Directors member, Director, PMO, Co-Founder, and more…
+First US based eCommerce professional (since 2006) to monetize on the international marketplaces opportunity and generate millions in profit through corss-broder E-Commerce. Former CEO of one of the fastest growing eCommerce companies in annual revenue YoY. Started a company that is today a top-100 Amazon seller (and other marketplaces).
+Expert in E-Commerce platforms including ChannelAdvisor (Rithum), Salesforce (Commerce Cloud / SFCC, Marketing Cloud, B2B Commerce, and more…), SAP Commerce Cloud (Hybris), Adobe Commerce Cloud (Magento), Oracle Commerce Cloud (ATG), Shopify Enterprise, and more.
+I shine in the area of PIM (Product Information Management) with many years of experience using Salsify, Syndigo, STIBO, Informatica, and other PIMs / PXMs ... I'm considered to be one of the top MDM &amp; DAM experts in the industry, an expert in automating multi-channel bulk product listings, and listed millions of products on Amazon.com , Walmart.com , eBay.com , and +100 other online retail channels.
+Because of my passion for MDM (Master Data Management) I'm also an innovator &amp; investor of first of its kind systems for PIM/MDM platform. I also invented a pick &amp; pack, product imaging, mail presorting, digital merchandising, and few more apps that are used daily across the industry.
+In my personal life I'm also passionate about Monero and other privacy cryptocurrencies.
+</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/bensharir</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> http://stores.ebay.com/classycosmetix; http://www.amazon.com/gp/browse.html?ie=UTF8&amp;marketplaceID=ATVPDKIKX0DER&amp;me=A30QID49CEIM2J; http://stores.ebay.co.uk/makeupboutiqueuk;</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> weixin://dl/chat?Ben%20Sharir; https://twitter.com/eldarsharir;</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>New York, New York, United States</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>7/2/2024</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        TikTok is the world's leading destination for short-form video. Our platform is built to help imaginations thrive. This is doubly true of the teams that make TikTok possible. 
+Our employees lead with curiosity, and move at the speed of culture. Combined with our company's flat structure, you'll be given dynamic opportunities to make a real impact on a rapidly expanding company as you grow your career. We have offices across Asia Pacific, the Middle East, Europe, and the Americas – and we're just getting started.
+      </t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Los Angeles, California , United States</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/about?lang=en</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Bikash Pathak</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>VP of Digital &amp; Ecommerce- Southeast Asia</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A passionate digital native, who has spent the last decade launching and scaling ecommerce &amp; omnichannel businesses across India, Middle East and Southeast Asia.
+In this journey, I have been fortunate to drive digital transformation for multi-billion dollar conglomerates in the Middle East (Al Tayer Group, Al Futtaim Group, Landmark Group, Jashanmal Group, Chalhoub Group) and Matahari Dept Store in Indonesia, growing ecommerce from 0 to 1 and managing P&amp;Ls towards profitability.
+Currently I am heading digital for MAP Active, the biggest Sports &amp; Lifestyle retailer in Southeast Asia across Indonesia, Philippines, Singapore, Malaysia, Thailand and Vietnam for some of the most iconic brands in the world like Footlocker, New Balance, Converse, Skechers, Hoka, Crocs, Aldo, Birkenstock, Steve Madden, Lego and many more.
+PROFESSIONAL EXPERTISE INCLUDE:
+P&amp;L management, Digital transformation, Trading &amp; Merchandising, CX, CRO, Digital Marketing, Tech &amp; Product Strategy, Growth, Project Management, Business Analytics, Ecommerce Platforms &amp; Tools, Team Management.
+Personally, I am a “technology as enabler” evangelist, avid reader and a hiking nerd who is always available for causes around children welfare, sustainability and environmental conservation.
+</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/bikashpathak</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> bikash.pathak1989@gmail.com;</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Jakarta Metropolitan Area</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>7/2/2024</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>PT MAP Aktif Adiperkasa, Indonesia</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Member of MAP Group, MAP Active has over 1,300 stores of Sports, Fashion Footwear and Kids in 81 cities across Indonesia. MAP ACTIVE has presence internationally; Singapore, Thailand, Philippines, Malaysia and Vietnam. Listed amongst the Top 60 Global Sporting Goods retailers, and the No #1 in SE Asia,  MAP ACTIVE plans to grow and preach its mission of a healthy body and spirit for all. We have more than 150 brands across Sports, Fashion Footwear, and Kids with 40+ exclusive brands.
+      </t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>26th Floor, Sahid Sudirman Center - Sahid City, Jl. Jend. Sudirman kav.86, Jakarta, Jakarta 10220, Indonesia</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>http://www.map.co.id/</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Diego Fria</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>eCommerce Director</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">eCommerce Director and Product specialist currently working at Stüssy inc.
+I have given lectures and talks at Hyper Island and at Industry conferences and events like LEAP in Riyadh, D Congress in Gothenburg, RTS London, Savant eCommerce and Copenhagen Fashion Week as well as participating at Klarna and Shopify events among many others discussing tech, eCommerce and growth strategies.
+</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/diegoveggie</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>London, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>7/2/2024</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Stussy, Inc.</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Stüssy originated in the early 1980s as a product of the California
+surf culture in Laguna Beach in Southern California. The ‘scrawled’
+logo originates from when Shawn Stussy marked his handmade
+surfboards with his surname. Synonymous with street culture, and
+worn by DJs to skaters alike, Stüssy’s appeal strikes far and wide and
+is known for being one of the oldest and orginal streetwear brands.
+With flagship stores in New York, Tokyo, Los Angeles, Milan and London,
+Stüssy remains at the forefront of the streetwear culture through
+consistently pure product, exclusive collaborations and alignments,
+controlled distribution and a vast worldwide network of cultural
+creative that make up the “Stüssy Tribe.”  
+      </t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>17426 Daimler Street, Irvine, California 92614, United States</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>http://www.stussy.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Jonathan Yardley</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Head of ECommerce</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Award winning ECommerce leader and specialist in 'Direct to Customer' (D2C/DTC) digital platforms, with over fifteen years experience of building, scaling and trading D2C, multichannel websites. Digital leadership roles held at major bluechip brands su…Show more</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/jonathan-yardley-1a50326</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> https://arsenaldirect.arsenal.com/;</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>London, England, United Kingdom</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>7/2/2024</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Arsenal F.C</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Arsenal Football Club exists to make our fans proud, wherever they are in the world and however they choose to follow us.
+That pride is driven by success on the pitch. This means winning trophies. It also comes through our style of play, our focus on developing youth talent, our magnificent stadium, our broader contribution in the community and our self-financing approach.
+Everyone who works for Arsenal Football Club understands that we will fulfil our goal of making fans proud by being together, always moving forward and doing things the Arsenal way. This final element is a key ingredient of who we are. It’s about thinking about others, getting the detail right and going above and beyond expectations.
+Whether you are interested in employment, corporate and hospitality updates or just staying connected to Arsenal Football Club please follow our page.
+      </t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>75 Drayton Park, 75 Drayton Park, London, N5 1BU, United Kingdom</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>http://www.arsenal.com/</t>
         </is>
       </c>
     </row>
